--- a/server/seoulData.xlsx
+++ b/server/seoulData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동욱\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choejiyeong/Desktop/team_project/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE187DA6-B9C2-4A47-89D9-3A7AA3821952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB872855-79FC-1947-A255-9114E1268536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주요 50장소 목록" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>여의도</t>
   </si>
@@ -177,6 +177,206 @@
   </si>
   <si>
     <t>장소명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%97%AD%EC%82%BC%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%84%9C%EC%9A%B8%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%84%9C%EC%9A%B8%EC%88%B2%EA%B3%B5%EC%9B%90.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EB%82%A8%EC%82%B0%EA%B3%B5%EC%9B%90.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EA%B5%AD%EB%A6%BD%EC%A4%91%EC%95%99%EB%B0%95%EB%AC%BC%EA%B4%80%C2%B7%EC%9A%A9%EC%82%B0%EA%B0%80%EC%A1%B1%EA%B3%B5%EC%9B%90.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%9B%94%EB%93%9C%EC%BB%B5%EA%B3%B5%EC%9B%90.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%9D%B4%EC%B4%8C%ED%95%9C%EA%B0%95%EA%B3%B5%EC%9B%90.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%9E%A0%EC%8B%A4%ED%95%9C%EA%B0%95%EA%B3%B5%EC%9B%90.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EB%B0%98%ED%8F%AC%ED%95%9C%EA%B0%95%EA%B3%B5%EC%9B%90.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EB%A7%9D%EC%9B%90%ED%95%9C%EA%B0%95%EA%B3%B5%EC%9B%90.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%9E%A0%EC%8B%A4%EC%A2%85%ED%95%A9%EC%9A%B4%EB%8F%99%EC%9E%A5.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%84%9C%EC%9A%B8%EB%8C%80%EA%B3%B5%EC%9B%90.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EB%B6%81%EC%84%9C%EC%9A%B8%EA%BF%88%EC%9D%98%EC%88%B2.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EB%9A%9D%EC%84%AC%ED%95%9C%EA%B0%95%EA%B3%B5%EC%9B%90.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EA%B0%95%EB%82%A8%20MICE%20%EA%B4%80%EA%B4%91%ED%8A%B9%EA%B5%AC.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EB%AA%85%EB%8F%99%20%EA%B4%80%EA%B4%91%ED%8A%B9%EA%B5%AC.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%A2%85%EB%A1%9C%C2%B7%EC%B2%AD%EA%B3%84%20%EA%B4%80%EA%B4%91%ED%8A%B9%EA%B5%AC.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EB%8F%99%EB%8C%80%EB%AC%B8%20%EA%B4%80%EA%B4%91%ED%8A%B9%EA%B5%AC.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%9E%A0%EC%8B%A4%20%EA%B4%80%EA%B4%91%ED%8A%B9%EA%B5%AC.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%9D%B4%ED%83%9C%EC%9B%90%20%EA%B4%80%EA%B4%91%ED%8A%B9%EA%B5%AC.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%ED%99%8D%EB%8C%80%20%EA%B4%80%EA%B4%91%ED%8A%B9%EA%B5%AC.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EA%B4%91%ED%99%94%EB%AC%B8%C2%B7%EB%8D%95%EC%88%98%EA%B6%81.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%B0%BD%EB%8D%95%EA%B6%81%C2%B7%EC%A2%85%EB%AC%98.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EA%B2%BD%EB%B3%B5%EA%B6%81%C2%B7%EC%84%9C%EC%B4%8C%EB%A7%88%EC%9D%84.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EA%B5%AC%EB%A1%9C%EB%94%94%EC%A7%80%ED%84%B8%EB%8B%A8%EC%A7%80%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EA%B0%80%EC%82%B0%EB%94%94%EC%A7%80%ED%84%B8%EB%8B%A8%EC%A7%80%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EA%B0%95%EB%82%A8%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EA%B3%A0%EC%86%8D%ED%84%B0%EB%AF%B8%EB%84%90%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EA%B5%90%EB%8C%80%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%9A%A9%EC%82%B0%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%8B%A0%EC%B4%8C%C2%B7%EC%9D%B4%EB%8C%80%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%99%95%EC%8B%AD%EB%A6%AC%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%97%B0%EC%8B%A0%EB%82%B4%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EA%B1%B4%EB%8C%80%EC%9E%85%EA%B5%AC%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%8B%A0%EB%A6%BC%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%8B%A0%EB%8F%84%EB%A6%BC%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/DMC(%EB%94%94%EC%A7%80%ED%84%B8%EB%AF%B8%EB%94%94%EC%96%B4%EC%8B%9C%ED%8B%B0).jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%97%AC%EC%9D%98%EB%8F%84.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%95%95%EA%B5%AC%EC%A0%95%EB%A1%9C%EB%8D%B0%EC%98%A4%EA%B1%B0%EB%A6%AC.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%9D%B8%EC%82%AC%EB%8F%99%C2%B7%EC%9D%B5%EC%84%A0%EB%8F%99.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EA%B0%80%EB%A1%9C%EC%88%98%EA%B8%B8.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%84%B1%EC%88%98%EC%B9%B4%ED%8E%98%EA%B1%B0%EB%A6%AC.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%98%81%EB%93%B1%ED%8F%AC%20%ED%83%80%EC%9E%84%EC%8A%A4%ED%80%98%EC%96%B4.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%B0%BD%EB%8F%99%20%EC%8B%A0%EA%B2%BD%EC%A0%9C%20%EC%A4%91%EC%8B%AC%EC%A7%80.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EB%85%B8%EB%9F%89%EC%A7%84.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EB%B6%81%EC%B4%8C%ED%95%9C%EC%98%A5%EB%A7%88%EC%9D%84.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%8C%8D%EB%AC%B8%EB%8F%99%20%EB%A7%9B%EC%A7%91%EA%B1%B0%EB%A6%AC.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EB%82%99%EC%82%B0%EA%B3%B5%EC%9B%90%C2%B7%EC%9D%B4%ED%99%94%EB%A7%88%EC%9D%84.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%88%98%EC%9C%A0%EB%A6%AC%20%EB%A8%B9%EC%9E%90%EA%B3%A8%EB%AA%A9.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -201,6 +401,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,16 +429,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -239,9 +450,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,432 +768,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C23" r:id="rId1" xr:uid="{08202DB9-6378-FB4F-964A-1A87A5D1B2CC}"/>
+    <hyperlink ref="C18" r:id="rId2" xr:uid="{B857ECEF-FEBE-4F44-8034-2AA3446D82D9}"/>
+    <hyperlink ref="C47" r:id="rId3" xr:uid="{1418C1DF-A694-8544-AF9A-839D10096675}"/>
+    <hyperlink ref="C41" r:id="rId4" xr:uid="{21C74C86-F7E7-4C45-BF61-4B90CB08F282}"/>
+    <hyperlink ref="C40" r:id="rId5" xr:uid="{725C908E-C407-2A44-981E-D83CFF251F7D}"/>
+    <hyperlink ref="C48" r:id="rId6" xr:uid="{2D2C87E8-C664-0041-A484-445E2349C748}"/>
+    <hyperlink ref="C49" r:id="rId7" xr:uid="{85CFA2AA-501E-AF41-ADFE-632781B67E56}"/>
+    <hyperlink ref="C51" r:id="rId8" xr:uid="{335A8570-DBCD-CF41-AB05-CCC0F952B51E}"/>
+    <hyperlink ref="C44" r:id="rId9" xr:uid="{61B98828-237A-074E-81C7-D5E4A5E650DE}"/>
+    <hyperlink ref="C43" r:id="rId10" xr:uid="{E936058A-D1A2-6F44-8A1A-6708B97C384D}"/>
+    <hyperlink ref="C50" r:id="rId11" xr:uid="{CA4E3A8F-A147-4F40-B1AD-C0B1EC412DF4}"/>
+    <hyperlink ref="C46" r:id="rId12" xr:uid="{5FBF145C-C9F1-9248-81E7-44945A048FA8}"/>
+    <hyperlink ref="C45" r:id="rId13" xr:uid="{C115298A-FDDA-4143-998A-FDB22674162E}"/>
+    <hyperlink ref="C42" r:id="rId14" xr:uid="{3ABD8400-3E3E-434F-AED0-A775C120B54C}"/>
+    <hyperlink ref="C2" r:id="rId15" xr:uid="{81C5DBB4-5B8B-0548-AEB6-EDD937180592}"/>
+    <hyperlink ref="C4" r:id="rId16" xr:uid="{20297232-C80D-1C44-967B-8C1F5F2B26CC}"/>
+    <hyperlink ref="C7" r:id="rId17" xr:uid="{41BAFAAF-C9C1-BD43-8113-4FBB5A316696}"/>
+    <hyperlink ref="C3" r:id="rId18" xr:uid="{6E032924-9BA3-7344-9436-06A622EC98C8}"/>
+    <hyperlink ref="C6" r:id="rId19" xr:uid="{AF39F17F-2939-854A-B575-D0184B63C58C}"/>
+    <hyperlink ref="C5" r:id="rId20" xr:uid="{2CA806E6-C168-A247-904B-46B1587B0BB7}"/>
+    <hyperlink ref="C8" r:id="rId21" xr:uid="{25357EAF-03EA-8041-9112-4837B25B3F7B}"/>
+    <hyperlink ref="C10" r:id="rId22" xr:uid="{1A0F4888-3B55-EF4D-BAF2-510D874624EF}"/>
+    <hyperlink ref="C11" r:id="rId23" xr:uid="{CDF92C80-CBA4-4240-8201-952FA06C30CC}"/>
+    <hyperlink ref="C9" r:id="rId24" xr:uid="{5C23F5FC-6C7B-8746-BDE7-E4E9577A47CF}"/>
+    <hyperlink ref="C17" r:id="rId25" xr:uid="{CB1D0956-F0BE-1742-9211-AA2E771621D1}"/>
+    <hyperlink ref="C12" r:id="rId26" xr:uid="{A895C698-346C-634C-9228-54DDCC91813B}"/>
+    <hyperlink ref="C13" r:id="rId27" xr:uid="{20D1CBCB-FC04-C642-BD39-26CA20A0BAFD}"/>
+    <hyperlink ref="C15" r:id="rId28" xr:uid="{41705126-6198-5140-80FF-F5099AAD89E5}"/>
+    <hyperlink ref="C16" r:id="rId29" xr:uid="{F714A104-B9B6-0A47-9E2E-9897E214258D}"/>
+    <hyperlink ref="C25" r:id="rId30" xr:uid="{1A018697-C631-8E44-AB11-582260F7B0D4}"/>
+    <hyperlink ref="C22" r:id="rId31" xr:uid="{58FCA536-BD7E-FC42-B030-5B178D0B7867}"/>
+    <hyperlink ref="C26" r:id="rId32" xr:uid="{10EAC825-9CF8-7046-A4C3-72D155E816D4}"/>
+    <hyperlink ref="C24" r:id="rId33" xr:uid="{2BB2A445-E3D2-1B4A-A242-3372D936BD39}"/>
+    <hyperlink ref="C14" r:id="rId34" xr:uid="{A62886EC-8DD4-3C42-858B-A8A5D8707D24}"/>
+    <hyperlink ref="C21" r:id="rId35" xr:uid="{334FE252-6D7C-E445-AA1B-4F5731C910C0}"/>
+    <hyperlink ref="C20" r:id="rId36" xr:uid="{18DE4622-50D9-8741-B6AC-19B8EE9C66D5}"/>
+    <hyperlink ref="C27" r:id="rId37" xr:uid="{92BD600E-998E-DD4C-B972-7D569668AA1B}"/>
+    <hyperlink ref="C37" r:id="rId38" xr:uid="{9928566E-5897-494A-8B75-3A22D9A64E99}"/>
+    <hyperlink ref="C36" r:id="rId39" xr:uid="{17784B5C-5515-1D48-9191-40A0B1718F00}"/>
+    <hyperlink ref="C39" r:id="rId40" xr:uid="{F483971B-B706-A642-8B7C-08459001B2BF}"/>
+    <hyperlink ref="C32" r:id="rId41" xr:uid="{B65965A2-37F9-D74F-B794-0A237E1AA4B6}"/>
+    <hyperlink ref="C33" r:id="rId42" xr:uid="{383CDF4D-B4ED-D14C-B9C1-092793C360DC}"/>
+    <hyperlink ref="C38" r:id="rId43" xr:uid="{BB794C2D-1B12-0547-B99E-D74CA64FAA80}"/>
+    <hyperlink ref="C28" r:id="rId44" xr:uid="{F0B6E2D9-ECB4-384F-89FD-00D93E78EA78}"/>
+    <hyperlink ref="C29" r:id="rId45" xr:uid="{84A09B02-BE01-BD42-9239-9B0730C2B460}"/>
+    <hyperlink ref="C31" r:id="rId46" xr:uid="{D5B49742-18FB-3745-BCEB-6BDFEE83E2F0}"/>
+    <hyperlink ref="C35" r:id="rId47" xr:uid="{EB4589FC-632C-7546-9804-85A84DD288D8}"/>
+    <hyperlink ref="C30" r:id="rId48" xr:uid="{433B398D-3A96-8343-9703-440B07C98F7D}"/>
+    <hyperlink ref="C34" r:id="rId49" xr:uid="{AFA75E03-E490-E94B-A2B3-2C397C1B0715}"/>
+    <hyperlink ref="C19" r:id="rId50" xr:uid="{D8638623-AA31-5745-B60B-E9267124A47E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId51"/>
 </worksheet>
 </file>
--- a/server/seoulData.xlsx
+++ b/server/seoulData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choejiyeong/Desktop/team_project/server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤제\Desktop\2023_TEAM_SIBA\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB872855-79FC-1947-A255-9114E1268536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC25CA7-E69E-4976-9448-89C2CBBEE493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주요 50장소 목록" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>여의도</t>
   </si>
@@ -377,6 +377,10 @@
   </si>
   <si>
     <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%88%98%EC%9C%A0%EB%A6%AC%20%EB%A8%B9%EC%9E%90%EA%B3%A8%EB%AA%A9.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fm.yna.co.kr%2Fview%2FAKR20220609069300005&amp;psig=AOvVaw2D01ldcJAxniUVZIIymlvF&amp;ust=1681346481639000&amp;source=images&amp;cd=vfe&amp;ved=0CBEQjRxqFwoTCNi0-u-No_4CFQAAAAAdAAAAABA3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -770,15 +774,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="144.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -805,7 +809,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -816,7 +820,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -827,7 +831,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -838,7 +842,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -849,7 +853,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -860,7 +864,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -871,7 +875,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -882,7 +886,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -893,7 +897,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -904,7 +908,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -915,7 +919,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -926,7 +930,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -937,7 +941,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -948,7 +952,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -959,7 +963,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -970,7 +974,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -981,18 +985,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>20</v>
@@ -1003,7 +1007,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -1014,7 +1018,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -1025,7 +1029,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -1036,7 +1040,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -1047,7 +1051,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
@@ -1058,7 +1062,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
@@ -1069,7 +1073,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -1080,7 +1084,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
@@ -1091,7 +1095,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
@@ -1102,7 +1106,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -1113,7 +1117,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -1124,7 +1128,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -1135,7 +1139,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -1146,7 +1150,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -1157,7 +1161,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -1168,7 +1172,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -1179,7 +1183,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -1190,7 +1194,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
@@ -1201,7 +1205,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
@@ -1212,7 +1216,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
@@ -1223,7 +1227,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
@@ -1234,7 +1238,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
@@ -1245,7 +1249,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
@@ -1256,7 +1260,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
@@ -1267,7 +1271,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
@@ -1278,7 +1282,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -1289,7 +1293,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -1300,7 +1304,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
@@ -1311,7 +1315,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -1322,7 +1326,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
@@ -1333,7 +1337,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>49</v>

--- a/server/seoulData.xlsx
+++ b/server/seoulData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤제\Desktop\2023_TEAM_SIBA\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC25CA7-E69E-4976-9448-89C2CBBEE493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6A165-80DA-4251-BD2A-F338986AAA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fm.yna.co.kr%2Fview%2FAKR20220609069300005&amp;psig=AOvVaw2D01ldcJAxniUVZIIymlvF&amp;ust=1681346481639000&amp;source=images&amp;cd=vfe&amp;ved=0CBEQjRxqFwoTCNi0-u-No_4CFQAAAAAdAAAAABA3</t>
+    <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%84%A0%EB%A6%89%EC%97%AD.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>

--- a/server/seoulData.xlsx
+++ b/server/seoulData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤제\Desktop\2023_TEAM_SIBA\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwan/Desktop/final-project/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6A165-80DA-4251-BD2A-F338986AAA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150BA78-ECC0-4943-9782-468BD5B5A6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주요 50장소 목록" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>여의도</t>
   </si>
@@ -381,6 +381,14 @@
   </si>
   <si>
     <t>https://data.seoul.go.kr/SeoulRtd/images/hotspot/%EC%84%A0%EB%A6%89%EC%97%AD.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -388,6 +396,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="201" formatCode="0.00000000000000_);[Red]\(0.00000000000000\)"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -441,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,7 +465,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,581 +789,887 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="144.875" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" ht="22" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="4">
+        <v>37.511661999999298</v>
+      </c>
+      <c r="E2" s="4">
+        <v>127.055243153942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="4">
+        <v>37.567546599996</v>
+      </c>
+      <c r="E3" s="4">
+        <v>127.001556655098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22" customHeight="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="4">
+        <v>37.562729990264501</v>
+      </c>
+      <c r="E4" s="4">
+        <v>126.983696578134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22" customHeight="1">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="4">
+        <v>37.5342771436531</v>
+      </c>
+      <c r="E5" s="4">
+        <v>126.994891569323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22" customHeight="1">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="4">
+        <v>37.513765726105703</v>
+      </c>
+      <c r="E6" s="4">
+        <v>127.09735973902301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22" customHeight="1">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="4">
+        <v>37.569651200000401</v>
+      </c>
+      <c r="E7" s="4">
+        <v>127.001453253934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22" customHeight="1">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="4">
+        <v>37.551964685908302</v>
+      </c>
+      <c r="E8" s="4">
+        <v>126.920423091491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22" customHeight="1">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="4">
+        <v>37.576609697396101</v>
+      </c>
+      <c r="E9" s="4">
+        <v>126.971421044783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22" customHeight="1">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="4">
+        <v>37.5725121750813</v>
+      </c>
+      <c r="E10" s="4">
+        <v>126.97490193597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22" customHeight="1">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="4">
+        <v>37.577633765876598</v>
+      </c>
+      <c r="E11" s="4">
+        <v>126.99191519262899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22" customHeight="1">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="4">
+        <v>37.4816346999988</v>
+      </c>
+      <c r="E12" s="4">
+        <v>126.87837455393699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22" customHeight="1">
       <c r="A13" s="3">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4">
+        <v>37.497951700000101</v>
+      </c>
+      <c r="E13" s="4">
+        <v>127.023434553935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22" customHeight="1">
       <c r="A14" s="3">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4">
+        <v>37.540371800000301</v>
+      </c>
+      <c r="E14" s="4">
+        <v>127.065091653938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22" customHeight="1">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4">
+        <v>37.504905500000099</v>
+      </c>
+      <c r="E15" s="4">
+        <v>127.000791053933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22" customHeight="1">
       <c r="A16" s="3">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="4">
+        <v>37.493982940832304</v>
+      </c>
+      <c r="E16" s="4">
+        <v>127.01118070115599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22" customHeight="1">
       <c r="A17" s="3">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="4">
+        <v>37.485214699999197</v>
+      </c>
+      <c r="E17" s="4">
+        <v>126.89740995393799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22" customHeight="1">
       <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="4">
+        <v>37.5559459999997</v>
+      </c>
+      <c r="E18" s="4">
+        <v>126.963941655097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22" customHeight="1">
       <c r="A19" s="3">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="4">
+        <v>37.504909200095902</v>
+      </c>
+      <c r="E19" s="4">
+        <v>127.045499724487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="22" customHeight="1">
       <c r="A20" s="3">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="4">
+        <v>37.509691555348503</v>
+      </c>
+      <c r="E20" s="4">
+        <v>126.888249713608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22" customHeight="1">
       <c r="A21" s="3">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="4">
+        <v>37.484231300000197</v>
+      </c>
+      <c r="E21" s="4">
+        <v>126.92132355509899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22" customHeight="1">
       <c r="A22" s="3">
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="4">
+        <v>37.557807821772798</v>
+      </c>
+      <c r="E22" s="4">
+        <v>126.93689331765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22" customHeight="1">
       <c r="A23" s="3">
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="4">
+        <v>37.500643100000097</v>
+      </c>
+      <c r="E23" s="4">
+        <v>127.032192153935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22" customHeight="1">
       <c r="A24" s="3">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="4">
+        <v>37.619061900000403</v>
+      </c>
+      <c r="E24" s="4">
+        <v>126.917008053934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22" customHeight="1">
       <c r="A25" s="3">
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="4">
+        <v>37.529679400001001</v>
+      </c>
+      <c r="E25" s="4">
+        <v>126.956052555094</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22" customHeight="1">
       <c r="A26" s="3">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="4">
+        <v>37.561227700000998</v>
+      </c>
+      <c r="E26" s="4">
+        <v>127.033069753934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="22" customHeight="1">
       <c r="A27" s="3">
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="4">
+        <v>37.577508299999799</v>
+      </c>
+      <c r="E27" s="4">
+        <v>126.892107855097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="22" customHeight="1">
       <c r="A28" s="3">
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="4">
+        <v>37.654974982971297</v>
+      </c>
+      <c r="E28" s="4">
+        <v>127.053188254133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="22" customHeight="1">
       <c r="A29" s="3">
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="4">
+        <v>37.511516380361897</v>
+      </c>
+      <c r="E29" s="4">
+        <v>126.933144093639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22" customHeight="1">
       <c r="A30" s="3">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="4">
+        <v>37.578645356907401</v>
+      </c>
+      <c r="E30" s="4">
+        <v>127.00614010126699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="22" customHeight="1">
       <c r="A31" s="3">
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="4">
+        <v>37.581353999999401</v>
+      </c>
+      <c r="E31" s="4">
+        <v>126.98089965393601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="22" customHeight="1">
       <c r="A32" s="3">
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="4">
+        <v>37.519692299998503</v>
+      </c>
+      <c r="E32" s="4">
+        <v>127.018904453939</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="22" customHeight="1">
       <c r="A33" s="3">
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="4">
+        <v>37.543214099999297</v>
+      </c>
+      <c r="E33" s="4">
+        <v>127.052366353935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="22" customHeight="1">
       <c r="A34" s="3">
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="4">
+        <v>37.640248699999603</v>
+      </c>
+      <c r="E34" s="4">
+        <v>127.02266575393899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="22" customHeight="1">
       <c r="A35" s="3">
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="4">
+        <v>37.646937477270399</v>
+      </c>
+      <c r="E35" s="4">
+        <v>127.032309203556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="22" customHeight="1">
       <c r="A36" s="3">
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="4">
+        <v>37.526813800001001</v>
+      </c>
+      <c r="E36" s="4">
+        <v>127.03507753848</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22" customHeight="1">
       <c r="A37" s="3">
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="4">
+        <v>37.528434501712901</v>
+      </c>
+      <c r="E37" s="4">
+        <v>126.89388500554401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22" customHeight="1">
       <c r="A38" s="3">
         <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="4">
+        <v>37.517224799998303</v>
+      </c>
+      <c r="E38" s="4">
+        <v>126.89534565509599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="22" customHeight="1">
       <c r="A39" s="3">
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="4">
+        <v>37.5742423807717</v>
+      </c>
+      <c r="E39" s="4">
+        <v>126.983663557138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="22" customHeight="1">
       <c r="A40" s="3">
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="4">
+        <v>37.524086700567402</v>
+      </c>
+      <c r="E40" s="4">
+        <v>126.97829597686101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="22" customHeight="1">
       <c r="A41" s="3">
         <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="4">
+        <v>37.5511530707155</v>
+      </c>
+      <c r="E41" s="4">
+        <v>126.98990546847701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="22" customHeight="1">
       <c r="A42" s="3">
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="4">
+        <v>37.5294517000006</v>
+      </c>
+      <c r="E42" s="4">
+        <v>127.066492653937</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="22" customHeight="1">
       <c r="A43" s="3">
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="4">
+        <v>37.555301800000002</v>
+      </c>
+      <c r="E43" s="4">
+        <v>126.89109555393399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="22" customHeight="1">
       <c r="A44" s="3">
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="4">
+        <v>37.510006549237303</v>
+      </c>
+      <c r="E44" s="4">
+        <v>126.99084163923899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="22" customHeight="1">
       <c r="A45" s="3">
         <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="4">
+        <v>37.623335500155399</v>
+      </c>
+      <c r="E45" s="4">
+        <v>127.036550153893</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="22" customHeight="1">
       <c r="A46" s="3">
         <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="4">
+        <v>37.425353973550301</v>
+      </c>
+      <c r="E46" s="4">
+        <v>127.024813080294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="22" customHeight="1">
       <c r="A47" s="3">
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="4">
+        <v>37.541964498175098</v>
+      </c>
+      <c r="E47" s="4">
+        <v>127.029889509897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="22" customHeight="1">
       <c r="A48" s="3">
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="4">
+        <v>37.571805000214198</v>
+      </c>
+      <c r="E48" s="4">
+        <v>126.858956761353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="22" customHeight="1">
       <c r="A49" s="3">
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="4">
+        <v>37.5191002999996</v>
+      </c>
+      <c r="E49" s="4">
+        <v>126.95685655509099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="22" customHeight="1">
       <c r="A50" s="3">
         <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="4">
+        <v>37.514802199997398</v>
+      </c>
+      <c r="E50" s="4">
+        <v>127.069441853936</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="22" customHeight="1">
       <c r="A51" s="3">
         <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="4">
+        <v>37.5188863999999</v>
+      </c>
+      <c r="E51" s="4">
+        <v>127.085842553935</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="22" customHeight="1">
       <c r="A52" s="1"/>
     </row>
   </sheetData>

--- a/server/seoulData.xlsx
+++ b/server/seoulData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwan/Desktop/final-project/server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤제\Desktop\2023_TEAM_SIBA\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150BA78-ECC0-4943-9782-468BD5B5A6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A580A62-8459-402E-BB4E-867057394BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주요 50장소 목록" sheetId="2" r:id="rId1"/>
@@ -397,7 +397,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="201" formatCode="0.00000000000000_);[Red]\(0.00000000000000\)"/>
+    <numFmt numFmtId="176" formatCode="0.00000000000000_);[Red]\(0.00000000000000\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -452,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,10 +465,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -791,18 +788,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.375" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22" customHeight="1">
+    <row r="1" spans="1:5" ht="21.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -819,14 +818,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22" customHeight="1">
+    <row r="2" spans="1:5" ht="21.95" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="4">
@@ -836,14 +835,14 @@
         <v>127.055243153942</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22" customHeight="1">
+    <row r="3" spans="1:5" ht="21.95" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="4">
@@ -853,14 +852,14 @@
         <v>127.001556655098</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22" customHeight="1">
+    <row r="4" spans="1:5" ht="21.95" customHeight="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="4">
@@ -870,14 +869,14 @@
         <v>126.983696578134</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22" customHeight="1">
+    <row r="5" spans="1:5" ht="21.95" customHeight="1">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="4">
@@ -887,14 +886,14 @@
         <v>126.994891569323</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22" customHeight="1">
+    <row r="6" spans="1:5" ht="21.95" customHeight="1">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="4">
@@ -904,14 +903,14 @@
         <v>127.09735973902301</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22" customHeight="1">
+    <row r="7" spans="1:5" ht="21.95" customHeight="1">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="4">
@@ -921,14 +920,14 @@
         <v>127.001453253934</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22" customHeight="1">
+    <row r="8" spans="1:5" ht="21.95" customHeight="1">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="4">
@@ -938,31 +937,31 @@
         <v>126.920423091491</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22" customHeight="1">
+    <row r="9" spans="1:5" ht="21.95" customHeight="1">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="4">
-        <v>37.576609697396101</v>
+        <v>37.579900000000002</v>
       </c>
       <c r="E9" s="4">
-        <v>126.971421044783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22" customHeight="1">
+        <v>126.9768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.95" customHeight="1">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="4">
@@ -972,14 +971,14 @@
         <v>126.97490193597</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22" customHeight="1">
+    <row r="11" spans="1:5" ht="21.95" customHeight="1">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="4">
@@ -989,14 +988,14 @@
         <v>126.99191519262899</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22" customHeight="1">
+    <row r="12" spans="1:5" ht="21.95" customHeight="1">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="4">
@@ -1006,14 +1005,14 @@
         <v>126.87837455393699</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22" customHeight="1">
+    <row r="13" spans="1:5" ht="21.95" customHeight="1">
       <c r="A13" s="3">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="4">
@@ -1023,14 +1022,14 @@
         <v>127.023434553935</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="22" customHeight="1">
+    <row r="14" spans="1:5" ht="21.95" customHeight="1">
       <c r="A14" s="3">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D14" s="4">
@@ -1040,14 +1039,14 @@
         <v>127.065091653938</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22" customHeight="1">
+    <row r="15" spans="1:5" ht="21.95" customHeight="1">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="4">
@@ -1057,14 +1056,14 @@
         <v>127.000791053933</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="22" customHeight="1">
+    <row r="16" spans="1:5" ht="21.95" customHeight="1">
       <c r="A16" s="3">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="4">
@@ -1074,14 +1073,14 @@
         <v>127.01118070115599</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="22" customHeight="1">
+    <row r="17" spans="1:5" ht="21.95" customHeight="1">
       <c r="A17" s="3">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="4">
@@ -1091,14 +1090,14 @@
         <v>126.89740995393799</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="22" customHeight="1">
+    <row r="18" spans="1:5" ht="21.95" customHeight="1">
       <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="4">
@@ -1108,14 +1107,14 @@
         <v>126.963941655097</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="22" customHeight="1">
+    <row r="19" spans="1:5" ht="21.95" customHeight="1">
       <c r="A19" s="3">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D19" s="4">
@@ -1125,14 +1124,14 @@
         <v>127.045499724487</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="22" customHeight="1">
+    <row r="20" spans="1:5" ht="21.95" customHeight="1">
       <c r="A20" s="3">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D20" s="4">
@@ -1142,14 +1141,14 @@
         <v>126.888249713608</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="22" customHeight="1">
+    <row r="21" spans="1:5" ht="21.95" customHeight="1">
       <c r="A21" s="3">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="4">
@@ -1159,14 +1158,14 @@
         <v>126.92132355509899</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="22" customHeight="1">
+    <row r="22" spans="1:5" ht="21.95" customHeight="1">
       <c r="A22" s="3">
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="4">
@@ -1176,14 +1175,14 @@
         <v>126.93689331765</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="22" customHeight="1">
+    <row r="23" spans="1:5" ht="21.95" customHeight="1">
       <c r="A23" s="3">
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="4">
@@ -1193,14 +1192,14 @@
         <v>127.032192153935</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="22" customHeight="1">
+    <row r="24" spans="1:5" ht="21.95" customHeight="1">
       <c r="A24" s="3">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="4">
@@ -1210,31 +1209,31 @@
         <v>126.917008053934</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="22" customHeight="1">
+    <row r="25" spans="1:5" ht="21.95" customHeight="1">
       <c r="A25" s="3">
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D25" s="4">
-        <v>37.529679400001001</v>
+        <v>37.529800000000002</v>
       </c>
       <c r="E25" s="4">
-        <v>126.956052555094</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="22" customHeight="1">
+        <v>129.96469999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.95" customHeight="1">
       <c r="A26" s="3">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="4">
@@ -1244,14 +1243,14 @@
         <v>127.033069753934</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="22" customHeight="1">
+    <row r="27" spans="1:5" ht="21.95" customHeight="1">
       <c r="A27" s="3">
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="4">
@@ -1261,14 +1260,14 @@
         <v>126.892107855097</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="22" customHeight="1">
+    <row r="28" spans="1:5" ht="21.95" customHeight="1">
       <c r="A28" s="3">
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D28" s="4">
@@ -1278,14 +1277,14 @@
         <v>127.053188254133</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="22" customHeight="1">
+    <row r="29" spans="1:5" ht="21.95" customHeight="1">
       <c r="A29" s="3">
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D29" s="4">
@@ -1295,14 +1294,14 @@
         <v>126.933144093639</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="22" customHeight="1">
+    <row r="30" spans="1:5" ht="21.95" customHeight="1">
       <c r="A30" s="3">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D30" s="4">
@@ -1312,14 +1311,14 @@
         <v>127.00614010126699</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="22" customHeight="1">
+    <row r="31" spans="1:5" ht="21.95" customHeight="1">
       <c r="A31" s="3">
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="4">
@@ -1329,14 +1328,14 @@
         <v>126.98089965393601</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="22" customHeight="1">
+    <row r="32" spans="1:5" ht="21.95" customHeight="1">
       <c r="A32" s="3">
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D32" s="4">
@@ -1346,14 +1345,14 @@
         <v>127.018904453939</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="22" customHeight="1">
+    <row r="33" spans="1:5" ht="21.95" customHeight="1">
       <c r="A33" s="3">
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D33" s="4">
@@ -1363,14 +1362,14 @@
         <v>127.052366353935</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="22" customHeight="1">
+    <row r="34" spans="1:5" ht="21.95" customHeight="1">
       <c r="A34" s="3">
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D34" s="4">
@@ -1380,14 +1379,14 @@
         <v>127.02266575393899</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="22" customHeight="1">
+    <row r="35" spans="1:5" ht="21.95" customHeight="1">
       <c r="A35" s="3">
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="4">
@@ -1397,14 +1396,14 @@
         <v>127.032309203556</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="22" customHeight="1">
+    <row r="36" spans="1:5" ht="21.95" customHeight="1">
       <c r="A36" s="3">
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D36" s="4">
@@ -1414,14 +1413,14 @@
         <v>127.03507753848</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="22" customHeight="1">
+    <row r="37" spans="1:5" ht="21.95" customHeight="1">
       <c r="A37" s="3">
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="4">
@@ -1431,14 +1430,14 @@
         <v>126.89388500554401</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="22" customHeight="1">
+    <row r="38" spans="1:5" ht="21.95" customHeight="1">
       <c r="A38" s="3">
         <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D38" s="4">
@@ -1448,14 +1447,14 @@
         <v>126.89534565509599</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="22" customHeight="1">
+    <row r="39" spans="1:5" ht="21.95" customHeight="1">
       <c r="A39" s="3">
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="4">
@@ -1465,14 +1464,14 @@
         <v>126.983663557138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="22" customHeight="1">
+    <row r="40" spans="1:5" ht="21.95" customHeight="1">
       <c r="A40" s="3">
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="4">
@@ -1482,14 +1481,14 @@
         <v>126.97829597686101</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="22" customHeight="1">
+    <row r="41" spans="1:5" ht="21.95" customHeight="1">
       <c r="A41" s="3">
         <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="4">
@@ -1499,14 +1498,14 @@
         <v>126.98990546847701</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="22" customHeight="1">
+    <row r="42" spans="1:5" ht="21.95" customHeight="1">
       <c r="A42" s="3">
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D42" s="4">
@@ -1516,14 +1515,14 @@
         <v>127.066492653937</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="22" customHeight="1">
+    <row r="43" spans="1:5" ht="21.95" customHeight="1">
       <c r="A43" s="3">
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="4">
@@ -1533,14 +1532,14 @@
         <v>126.89109555393399</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="22" customHeight="1">
+    <row r="44" spans="1:5" ht="21.95" customHeight="1">
       <c r="A44" s="3">
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="4">
@@ -1550,14 +1549,14 @@
         <v>126.99084163923899</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="22" customHeight="1">
+    <row r="45" spans="1:5" ht="21.95" customHeight="1">
       <c r="A45" s="3">
         <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D45" s="4">
@@ -1567,14 +1566,14 @@
         <v>127.036550153893</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="22" customHeight="1">
+    <row r="46" spans="1:5" ht="21.95" customHeight="1">
       <c r="A46" s="3">
         <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D46" s="4">
@@ -1584,14 +1583,14 @@
         <v>127.024813080294</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="22" customHeight="1">
+    <row r="47" spans="1:5" ht="21.95" customHeight="1">
       <c r="A47" s="3">
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="4">
@@ -1601,14 +1600,14 @@
         <v>127.029889509897</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="22" customHeight="1">
+    <row r="48" spans="1:5" ht="21.95" customHeight="1">
       <c r="A48" s="3">
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="4">
@@ -1618,14 +1617,14 @@
         <v>126.858956761353</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="22" customHeight="1">
+    <row r="49" spans="1:5" ht="21.95" customHeight="1">
       <c r="A49" s="3">
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="4">
@@ -1635,14 +1634,14 @@
         <v>126.95685655509099</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="22" customHeight="1">
+    <row r="50" spans="1:5" ht="21.95" customHeight="1">
       <c r="A50" s="3">
         <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="4">
@@ -1652,14 +1651,14 @@
         <v>127.069441853936</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="22" customHeight="1">
+    <row r="51" spans="1:5" ht="21.95" customHeight="1">
       <c r="A51" s="3">
         <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D51" s="4">
@@ -1669,7 +1668,7 @@
         <v>127.085842553935</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="22" customHeight="1">
+    <row r="52" spans="1:5" ht="21.95" customHeight="1">
       <c r="A52" s="1"/>
     </row>
   </sheetData>
